--- a/src/main/resources/templates/history.xlsx
+++ b/src/main/resources/templates/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\neo\nbd-api\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75620FB-C63C-45A7-A8CB-985BECE20635}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E687863C-E337-4C91-86EB-1A18A6397A7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{79984187-C45F-4096-B0E6-46317A7DC8DE}"/>
   </bookViews>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,9 +156,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -501,47 +498,47 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="8" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -549,31 +546,31 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
